--- a/biology/Histoire de la zoologie et de la botanique/Er-mi_Zhao/Er-mi_Zhao.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Er-mi_Zhao/Er-mi_Zhao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Er-mi Zhao (en chinois 赵尔宓) est un herpétologiste chinois né en 1930 à Chengdu et mort le 24 décembre 2016[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Er-mi Zhao (en chinois 赵尔宓) est un herpétologiste chinois né en 1930 à Chengdu et mort le 24 décembre 2016.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Er-mi Zhao est membre de l'Académie chinoise des sciences depuis 2001.
 </t>
@@ -542,7 +556,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Zhaoermia Gumprechtt &amp; Tillack, 2004
 Paramesotriton ermizhaoi Wu, Rovito, Papenfuss &amp; Hanken, 2009</t>
@@ -573,7 +589,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Achalinus meiguensis Hu &amp; Zhao, 1966
